--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675AD49-0F40-4C59-A210-5EC1A87004BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED35FE7A-3B99-4DFC-B9E3-81119E493DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Matrix</t>
   </si>
@@ -82,6 +82,45 @@
   </si>
   <si>
     <t>This function sorts array such that it correctly positions n/2 element and it's left is less than that and right are more than that</t>
+  </si>
+  <si>
+    <t>max size of rect</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/max-rectangle/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transerve each row and make height array at each row and apply max rectangle in histogram </t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>minimum swaps to sort array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/minimum-swaps/1</t>
+  </si>
+  <si>
+    <t>number of elements in cycle - 1</t>
+  </si>
+  <si>
+    <t>aggrssive cow</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/aggressive-cows/0</t>
+  </si>
+  <si>
+    <t>return end not mid</t>
+  </si>
+  <si>
+    <t>count smaller no. on left</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t>Merge sort in descending order</t>
   </si>
 </sst>
 </file>
@@ -408,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,6 +497,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
@@ -491,6 +541,44 @@
       </c>
       <c r="H12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED35FE7A-3B99-4DFC-B9E3-81119E493DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AED9E1-3415-420A-BFD2-FB1D5527EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Matrix</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>Merge sort in descending order</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Flattern A LL</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/</t>
+  </si>
+  <si>
+    <t>use stack to store next of Node having child</t>
+  </si>
+  <si>
+    <t>merge K sorted LL</t>
+  </si>
+  <si>
+    <t>https://www.proelevate.in/dsa-practice/arsh-dsa-sheet</t>
+  </si>
+  <si>
+    <t>merge 2 LL &amp; push it in end of list until only one LL is left</t>
+  </si>
+  <si>
+    <t>Stack and queue</t>
+  </si>
+  <si>
+    <t>queue using stack</t>
+  </si>
+  <si>
+    <t>use one stack to insert(x) pop.top push(x) insert(top)</t>
   </si>
 </sst>
 </file>
@@ -447,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,6 +611,46 @@
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AED9E1-3415-420A-BFD2-FB1D5527EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942305D-58D5-4124-9D6D-1C272CBB0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Matrix</t>
   </si>
@@ -151,6 +151,39 @@
   </si>
   <si>
     <t>use one stack to insert(x) pop.top push(x) insert(top)</t>
+  </si>
+  <si>
+    <t>next greater int I</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-i/description/</t>
+  </si>
+  <si>
+    <t>use stack and map while(stack.top() &lt;n) mp[st.top()] = arr[i] st.pop()</t>
+  </si>
+  <si>
+    <t>make note that to find integers bigger on right side make a stack and while(stack.top() &lt;n) mp[st.top()] = arr[i] st.pop()</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>find LCA in bst</t>
+  </si>
+  <si>
+    <t>use binary search to find lca root</t>
+  </si>
+  <si>
+    <t>Tree Questions can also be solved with binary search of root</t>
+  </si>
+  <si>
+    <t>binary Search Iterator</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search-tree-iterator/description/</t>
+  </si>
+  <si>
+    <t>Use stack to store all left nodes when next is asked pop top and insert all left of it's right and return it</t>
   </si>
 </sst>
 </file>
@@ -477,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,6 +684,51 @@
         <v>41</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942305D-58D5-4124-9D6D-1C272CBB0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C943A9-3952-4021-ABAB-481C298E56E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Matrix</t>
   </si>
@@ -162,9 +162,6 @@
     <t>use stack and map while(stack.top() &lt;n) mp[st.top()] = arr[i] st.pop()</t>
   </si>
   <si>
-    <t>make note that to find integers bigger on right side make a stack and while(stack.top() &lt;n) mp[st.top()] = arr[i] st.pop()</t>
-  </si>
-  <si>
     <t>Tree</t>
   </si>
   <si>
@@ -184,13 +181,70 @@
   </si>
   <si>
     <t>Use stack to store all left nodes when next is asked pop top and insert all left of it's right and return it</t>
+  </si>
+  <si>
+    <t>Unique BST II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees-ii/description/</t>
+  </si>
+  <si>
+    <t>solve for left and right; for ith node take evey left and right</t>
+  </si>
+  <si>
+    <t>All Nodes distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>make an map[parent-&gt;child] and visited set and do dfs on map</t>
+  </si>
+  <si>
+    <t>path Sum III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>Start from all the nodes and go until sum == target</t>
+  </si>
+  <si>
+    <t>tree form pre and post order</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>see solution</t>
+  </si>
+  <si>
+    <t>Unique BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees/description/</t>
+  </si>
+  <si>
+    <t>        dp[0] = dp[1] = 1;</t>
+  </si>
+  <si>
+    <t>        for(int i=2; i&lt;=n; i++)</t>
+  </si>
+  <si>
+    <t>            for(int j=1; j&lt;=i; j++)</t>
+  </si>
+  <si>
+    <t>                dp[i] += dp[j-1] * dp[i-j];</t>
+  </si>
+  <si>
+    <t>        return dp[n];</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +256,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,9 +288,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,226 +572,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.21875" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="H28" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
       <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C943A9-3952-4021-ABAB-481C298E56E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5F4F5-3C81-4D9B-8BF5-70EBA30BBFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Matrix</t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>        return dp[n];</t>
+  </si>
+  <si>
+    <t>find LCA in binaray tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>if r == q || p return r; if(l&amp;r) return r; if(l) return l; return r;</t>
+  </si>
+  <si>
+    <t>BinaryTreeToDLL</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/binary-tree-to-dll/1</t>
+  </si>
+  <si>
+    <t>make head=nullptr and make it point to initial node, prev=nullptr point it to prev node while doing inorder</t>
   </si>
 </sst>
 </file>
@@ -572,17 +590,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="79.21875" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,94 +790,116 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5F4F5-3C81-4D9B-8BF5-70EBA30BBFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99012E69-E3CD-4A43-A384-C72D0D8A76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Matrix</t>
   </si>
@@ -256,13 +256,37 @@
   </si>
   <si>
     <t>make head=nullptr and make it point to initial node, prev=nullptr point it to prev node while doing inorder</t>
+  </si>
+  <si>
+    <t>sum of distances in tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-distances-in-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a dfs to count child of each node, find distance of one node and update rest accodingly </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>verticle order traversal of binary tree</t>
+  </si>
+  <si>
+    <t>use map&lt;int, map&lt;int, multiset&lt;int&gt;&gt;&gt; to store row and col as mp[i][j].insert(val);</t>
+  </si>
+  <si>
+    <t>learn isStringStream to read from strin</t>
+  </si>
+  <si>
+    <t>while implementing inorder (or any other traversal(modify accordingly)) first call and then do the needfull and then call again</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +309,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,15 +335,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,15 +625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
     <col min="2" max="2" width="79.21875" customWidth="1"/>
     <col min="3" max="3" width="90.6640625" customWidth="1"/>
   </cols>
@@ -902,8 +937,43 @@
         <v>76</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B50" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99012E69-E3CD-4A43-A384-C72D0D8A76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61910E79-084B-46FC-BC72-E5F395DA2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Matrix</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>while implementing inorder (or any other traversal(modify accordingly)) first call and then do the needfull and then call again</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>do all the checks and other stuff on top of dfs/recurrsion call instead of doing it inside loop</t>
+  </si>
+  <si>
+    <t>use BFS to find distances between two points/group of multiple points to another group of multiple points</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,6 +978,21 @@
         <v>84</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61910E79-084B-46FC-BC72-E5F395DA2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191CFE52-3AA3-4057-8868-05C8EC794C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Matrix</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>use BFS to find distances between two points/group of multiple points to another group of multiple points</t>
+  </si>
+  <si>
+    <t>shortest bridge</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-bridge/</t>
+  </si>
+  <si>
+    <t>use dfs to mark first island elements as 2 then use bfs to find number of iterations needed to reach other island</t>
   </si>
 </sst>
 </file>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,6 +1002,17 @@
         <v>87</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191CFE52-3AA3-4057-8868-05C8EC794C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A766B05-BF8E-4B1D-96A0-AC9DB3A289EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Matrix</t>
   </si>
@@ -298,6 +298,69 @@
   </si>
   <si>
     <t>use dfs to mark first island elements as 2 then use bfs to find number of iterations needed to reach other island</t>
+  </si>
+  <si>
+    <t>minimum spanning tree</t>
+  </si>
+  <si>
+    <t>by kruskal(disjoint set) or by prims</t>
+  </si>
+  <si>
+    <t>see find, compress path, union operation</t>
+  </si>
+  <si>
+    <t>use dp while solving questions like snake and ladder</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ugly-number-ii/description/</t>
+  </si>
+  <si>
+    <t>first ugly number is 1, others can be find by 2*i, 3*i, 5*i, again to find others replace i with min of all the three</t>
+  </si>
+  <si>
+    <t>Farthest Building you can reach</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/furthest-building-you-can-reach/description/</t>
+  </si>
+  <si>
+    <t>use priority queue to insert bricks used and if(bricks &lt; 0) use ladder and ladder &lt; 0 return I;</t>
+  </si>
+  <si>
+    <t>keep it simple, generally thinks does not involve to much if-else</t>
+  </si>
+  <si>
+    <t>use qucik select to find nth largest elem, make l[], r[], m[] and take a pivot, if(elem[i]) is less than push in l, and make recursion call accordingly</t>
+  </si>
+  <si>
+    <t>kth smallest element in sorted array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/</t>
+  </si>
+  <si>
+    <t>use binary search OR push all the elem at r=0 in pq, and pop smallest and then push next elem of same r, do it k times</t>
+  </si>
+  <si>
+    <t>reorganize String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/description/</t>
+  </si>
+  <si>
+    <t>start from i=0, most mostFreq 2*i, now iterate other elem at 2*i, if i&gt;n, start from i=1 and iterate over i+=2;s</t>
+  </si>
+  <si>
+    <t>largest subarray with zum 0</t>
+  </si>
+  <si>
+    <t>create map with mp[0] = 0, prefix=0, insert all prefix one by one, if you have already encountered that prefix it means form last index to this index sum is 0</t>
   </si>
 </sst>
 </file>
@@ -357,11 +420,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,381 +718,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="79.21875" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="95.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>
+    <hyperlink ref="B66" r:id="rId2" xr:uid="{C7E7D3F0-3ED3-4CDE-81C1-C04E234F6387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A766B05-BF8E-4B1D-96A0-AC9DB3A289EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D5D4A-F783-4A71-AFCD-48289F45C84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Matrix</t>
   </si>
@@ -361,6 +361,42 @@
   </si>
   <si>
     <t>create map with mp[0] = 0, prefix=0, insert all prefix one by one, if you have already encountered that prefix it means form last index to this index sum is 0</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>maximum product Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/solutions/5581763/two-approaches-both-beat-100-o-n-time/</t>
+  </si>
+  <si>
+    <t>let ans = a[0], make two variables minAns = min(minAns, minAns*arr[i], maxAns[i]), maxAns =  max(minAns, minAns*arr[i], maxAns[i]) ans = max(ans, maxAns) for i=1 to n-1 ;</t>
+  </si>
+  <si>
+    <t>take, not take with memorization(2d/3d)</t>
+  </si>
+  <si>
+    <t>mcm approch - declare ans = 0, make a for loop and add all the return vules to ans and then return it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In tabulisation, we can also use ans which can be upgraded at every i,j </t>
+  </si>
+  <si>
+    <t>To optimise space use 2 1D array and swap them after every iteration</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/description/</t>
+  </si>
+  <si>
+    <t>1. Use 1D dp(n+1, 1). TC(n^2) consider every point as end and find possible answer for end point                                    2. Use Binary search TC(nlogn) - make an array if arr.back() &lt; nums[i] push. Less find smallest larger value and replace it and return size of array.</t>
+  </si>
+  <si>
+    <t>For problem like above make an array push if arr.back &lt; nums[i], else replace when push not possible</t>
   </si>
 </sst>
 </file>
@@ -718,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,6 +1209,58 @@
         <v>111</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D5D4A-F783-4A71-AFCD-48289F45C84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EEE60-8F72-4AF3-8528-A25B87FABEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Matrix</t>
   </si>
@@ -397,6 +397,54 @@
   </si>
   <si>
     <t>For problem like above make an array push if arr.back &lt; nums[i], else replace when push not possible</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>In case of 2 sorted array given like(find kth elem, find median), do binary search on taking x elements form 1st array and take rest (k-x) from second array. Handle edges cases h = max(n,k), if(l==0) l1=INT_MIN instead of arr[l-1]. Array1.size() &lt; array2.size()</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/description/</t>
+  </si>
+  <si>
+    <t>count square submatrices with all ones</t>
+  </si>
+  <si>
+    <t>iterate over matrix(except i=0 || j=0) if(mat[i][j] == 1) mat[i][j] = min(mat[i-1][j-1],mat[i-1][j], mat[i][j-1]) + 1; and return sum of mat values</t>
+  </si>
+  <si>
+    <t>For take/not take problem use 1D tabulization array, dp[i] = max(i+util(i+1), util(i+2))</t>
+  </si>
+  <si>
+    <t>you can also use map to create dp(when size of dp is unkown)</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>sub array sum = 0</t>
+  </si>
+  <si>
+    <t>create a map, mp[i] = prefixSum[i], if at two place prefixSum is same it means sum = 0</t>
+  </si>
+  <si>
+    <t>submatrix with sum = 0</t>
+  </si>
+  <si>
+    <t>iterate for all columns 0 to n-1 and do again iterate for each column and create a prefix sum and apply sub array sum = 0</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Tapping Rain Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/description/</t>
+  </si>
+  <si>
+    <t>2 pointer l,r; two int maxLeft, maxRight; while(l&lt;=r) if(l&lt;=r){update maxLeft or else add difference in ans} else{update maxRight or add difference in result }</t>
   </si>
 </sst>
 </file>
@@ -456,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -471,6 +519,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,517 +805,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="79.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="95.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>39</v>
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>73</v>
+      <c r="A34" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>48</v>
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>69</v>
+      <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>85</v>
+      <c r="C55" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
-        <v>87</v>
+      <c r="C56" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B68" s="3" t="s">
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="80" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="3" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B82" s="3" t="s">
+    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>
-    <hyperlink ref="B66" r:id="rId2" xr:uid="{C7E7D3F0-3ED3-4CDE-81C1-C04E234F6387}"/>
+    <hyperlink ref="B59" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>
+    <hyperlink ref="B75" r:id="rId2" xr:uid="{C7E7D3F0-3ED3-4CDE-81C1-C04E234F6387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aky11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EEE60-8F72-4AF3-8528-A25B87FABEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE8D411-A28D-4D86-A21A-912073484C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Matrix</t>
   </si>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>2 pointer l,r; two int maxLeft, maxRight; while(l&lt;=r) if(l&lt;=r){update maxLeft or else add difference in ans} else{update maxRight or add difference in result }</t>
+  </si>
+  <si>
+    <t>Gredy</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/candy/</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>while(i&lt;n){while( i&gt;i-1){peak++; ans+=peak;} while(i&lt;i-1){valley++, ans+=valley;} ans -= min(peak, valley); }</t>
+  </si>
+  <si>
+    <t>whenever you create a prefix/postfix always have it's size n+1, first(for prefix) = 0</t>
+  </si>
+  <si>
+    <t>longest Repeating Character Repacement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
+  </si>
+  <si>
+    <t>2 pointers, maxFreq, ans, freqArray(26,0); do not decrease maxFreq when window changes as it is not required;</t>
   </si>
 </sst>
 </file>
@@ -504,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -519,9 +543,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -805,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,557 +853,589 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B66" s="3" t="s">
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="2" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B87" s="3" t="s">
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B92" s="2" t="s">
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B59" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>
-    <hyperlink ref="B75" r:id="rId2" xr:uid="{C7E7D3F0-3ED3-4CDE-81C1-C04E234F6387}"/>
+    <hyperlink ref="B60" r:id="rId1" xr:uid="{D4453067-095B-4D9A-B672-3DA87E2ED545}"/>
+    <hyperlink ref="B76" r:id="rId2" xr:uid="{C7E7D3F0-3ED3-4CDE-81C1-C04E234F6387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
